--- a/Porovnani_01_04.xlsx
+++ b/Porovnani_01_04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiki\PycharmProjects\Colony_Count\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37BDF6C-B0AE-4843-9566-0FB84DEFA2FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABC16C4-1188-43F8-B122-0A9105677E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{48282F01-B452-4B76-B512-DF405AF65261}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="100">
   <si>
     <t>model</t>
   </si>
@@ -243,9 +243,6 @@
     <t>1.5582504</t>
   </si>
   <si>
-    <t>abs_acc</t>
-  </si>
-  <si>
     <t>split filters</t>
   </si>
   <si>
@@ -289,6 +286,54 @@
   </si>
   <si>
     <t>6.2233543</t>
+  </si>
+  <si>
+    <t>loss: 2.5679 - root_mean_squared_error: 1.6025 - mean_absolute_error: 0.7684</t>
+  </si>
+  <si>
+    <t>2.054011545419693</t>
+  </si>
+  <si>
+    <t>1.4331824</t>
+  </si>
+  <si>
+    <t>0.7273527</t>
+  </si>
+  <si>
+    <t>2.567925316731135</t>
+  </si>
+  <si>
+    <t>1.6024747</t>
+  </si>
+  <si>
+    <t>0.76839393</t>
+  </si>
+  <si>
+    <t>1.0422285259962083</t>
+  </si>
+  <si>
+    <t>1.020896</t>
+  </si>
+  <si>
+    <t>0.55229867</t>
+  </si>
+  <si>
+    <t>1.2030931516488392</t>
+  </si>
+  <si>
+    <t>1.096856</t>
+  </si>
+  <si>
+    <t>0.58114</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>rmse</t>
+  </si>
+  <si>
+    <t>mean abs err</t>
   </si>
 </sst>
 </file>
@@ -641,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9675FB6D-4F2B-46CD-8751-990F254185AB}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,9 +701,12 @@
     <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5546875" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -684,22 +732,28 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>71</v>
-      </c>
-      <c r="K1" t="s">
-        <v>72</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="N1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -736,8 +790,17 @@
       <c r="L2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -774,10 +837,19 @@
       <c r="L3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -806,8 +878,17 @@
       <c r="L4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -844,8 +925,17 @@
       <c r="L5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -882,8 +972,17 @@
       <c r="L6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" t="s">
+        <v>95</v>
+      </c>
+      <c r="O6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -921,9 +1020,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -950,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -985,7 +1084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1017,9 +1116,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1046,10 +1145,10 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1081,9 +1180,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1110,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1145,7 +1244,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -1183,7 +1282,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1281,7 +1380,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -1308,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1345,7 +1444,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -1372,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1637,7 +1736,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -1664,67 +1763,12 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L43" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1732,6 +1776,7 @@
     <sortCondition ref="L2:L29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1739,7 +1784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AB4963-2692-4D65-AD8A-4944563CA42F}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
